--- a/tabular/5. BTV_feature_location.xlsx
+++ b/tabular/5. BTV_feature_location.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="120" windowWidth="24260" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-28860" yWindow="1620" windowWidth="29160" windowHeight="26260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>JX680457</t>
   </si>
@@ -210,10 +210,10 @@
     <t>NS5</t>
   </si>
   <si>
-    <t>VS2</t>
-  </si>
-  <si>
     <t>segment_length</t>
+  </si>
+  <si>
+    <t>NS2</t>
   </si>
 </sst>
 </file>
@@ -267,8 +267,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -335,7 +337,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -365,6 +367,7 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -394,6 +397,7 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -723,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -747,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -1240,7 +1244,7 @@
         <v>1084</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1">
@@ -1293,13 +1297,16 @@
         <v>9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H35" s="1">
-        <v>27</v>
+        <v>1005</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1">
@@ -1311,13 +1318,13 @@
         <v>53</v>
       </c>
       <c r="G36" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H36" s="1">
         <v>1005</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1">
@@ -1329,13 +1336,13 @@
         <v>53</v>
       </c>
       <c r="G37" s="1">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="H37" s="1">
-        <v>1005</v>
+        <v>415</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1">
@@ -1344,74 +1351,76 @@
         <v>9</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" s="1">
-        <v>182</v>
+        <v>1006</v>
       </c>
       <c r="H38" s="1">
-        <v>415</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>55</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1">
       <c r="C39" s="2"/>
-      <c r="E39" s="1">
-        <v>9</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1006</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1049</v>
-      </c>
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" s="1" customFormat="1">
-      <c r="A41" s="1" t="s">
+      <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D40" s="1">
         <v>822</v>
       </c>
+      <c r="E40" s="1">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="E41" s="1">
         <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H41" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="1" customFormat="1">
+        <v>709</v>
+      </c>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="E42" s="1">
         <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="H42" s="1">
-        <v>58</v>
+        <v>709</v>
+      </c>
+      <c r="I42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1422,13 +1431,13 @@
         <v>58</v>
       </c>
       <c r="G43" s="1">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="H43" s="1">
-        <v>709</v>
+        <v>287</v>
       </c>
       <c r="I43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1436,46 +1445,12 @@
         <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="1">
         <v>59</v>
       </c>
-      <c r="H44" s="1">
-        <v>709</v>
-      </c>
-      <c r="I44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="E45" s="1">
-        <v>10</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="1">
-        <v>108</v>
-      </c>
-      <c r="H45" s="1">
-        <v>287</v>
-      </c>
-      <c r="I45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="E46" s="1">
-        <v>10</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46">
+      <c r="G44">
         <v>710</v>
       </c>
-      <c r="H46">
+      <c r="H44">
         <v>822</v>
       </c>
     </row>
